--- a/text-simp/trained_models/linguistic_features/Datasets/Lexile_dataset.xlsx
+++ b/text-simp/trained_models/linguistic_features/Datasets/Lexile_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D243"/>
+  <dimension ref="A1:D241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2319,58 +2319,10 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Jesse Owens</t>
+          <t>Sundarbans Mangroves</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Jesse Owens was born on September 12, 1913, in Oakville, Alabama. His grandparents had been enslaved and his parents were sharecroppers. Sharecroppers are people who rented small areas of land from a landowner. On theseplotsof land, the sharecroppers would plant andharvestcrops such as cotton. To pay the rent, the sharecroppers would give some of their crops to the landowner. This work was hard and did not bring in much money. Many sharecroppers wouldstruggleto bring food to the table.
-As a young boy, Owens would work on his family'splotof land. At ten years old, Owens picked approximately 100 pounds of cotton every day! His work helped his family pay the landowner and, most importantly, pay for food. Owens was not a strong and healthy boy, however. He was often sick during his childhood. But as he got older, Owens became a strong and healthy man. He even became arecord-breaking runner at the Olympics!
-In the 1936 Olympic Games of Berlin, Germany, Jesse Owens won many track races. In fact, Owens ended up winning four gold medals for the United States! Even though Owens won medals for his home country, the President of the United States, Franklin Roosevelt, did not congratulate him. African Americans were discriminated against in many ways, so Owens's successes were not celebrated as they should have been.
-However, eighty years later, President Obama held a ceremony for the families of the African American Olympic athletes from the 1936 Olympic Games. President Obama wanted to celebrate the bravery and skill of these athletes. Today, Jesse Owens is recognized properly as the incredible athlete he was.
-</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>890</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>The Iguazu Falls</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Iguazu Falls are a group of waterfalls that lie on theborderbetween Argentina and Brazil. They are made up a total of 275 waterfalls. The Iguazu Falls are about 1.7 miles wide. The amount of water that falls from the Iguazu Falls is astounding. Can you guess how much water falls per second? Around five Olympic swimming pools could be filled every second with the water from the Iguazu Falls! In fact, the name Iguazu translates to “big water” in the language of the local Guarani Indians.
-The tallest set of waterfalls in the Iguazu Falls is named Devil’s Throat. These 14 waterfalls are shaped like a "U." The tallest single waterfall in Devil's Throat is truly impressive! Its water drops for almost half a mile before hitting the river below.
-The Iguazu Falls are surrounded byrainforests. Many different animal and plantspecieslive in theserainforests. Howler monkeys are one of the many interesting kinds of animals that live near Iguazu Falls. Thisspeciesof monkey constantly lets out booming cries. Their cries are no match for the sounds produced by Iguazu Falls though! Would you want to visit the Iguazu Falls?
-</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>820</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Sundarbans Mangroves</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">Bangladesh is home to the largest mangrove forest in the world, the Sundarbans mangrove forest. Mangroves are shrubs or small trees that live near or in water. They are found in or along rivers, shores, or estuaries. An estuary is the place where the river meets the sea. Mangroves grow intropicalregions.Tropicalstorms often occur in these regions, so the mangroves haveadaptedto survive these storms. Mangroves are extremely tough.
 It is not surprising that Bangladesh has such a large mangrove forest. After all, Bangladesh is atropicalcountry with many rivers. The Sundarbans mangrove forest is so large that it goes beyond Bangladesh into India. Around 60% of the forest is in Bangladesh, and the other 40% is in India.
@@ -2379,22 +2331,22 @@
 </t>
         </is>
       </c>
-      <c r="C69" t="n">
+      <c r="C67" t="n">
         <v>850</v>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>Sophia and the Plátanos</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t xml:space="preserve">Nine-year-old Sophia sat at the kitchen table, looking at the plantains. Today she was going to work with Abuela to turn those banana-like fruits intoplátanos maduros. Sophia loved eatingplátanos and liked watching her family cook. She wasn’t sure, however, that she could do what Abuela wanted.
 When Mom made plantains, she held them with her left hand and peeled them with her right. Titi Olgapouredoil into the pan, holding the huge bottle with two hands. Tío Oscar flipped his plantains with a fork in each hand. How could Sophia peel orpouror flip plantains when she didn’thavetwo hands?
@@ -2416,22 +2368,22 @@
 </t>
         </is>
       </c>
-      <c r="C70" t="n">
+      <c r="C68" t="n">
         <v>580</v>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>Burrs &amp; Velcro</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t xml:space="preserve">Have you ever seen Velcro before? Chances are you have! It can be found on a range of different things, from clothing to NASA space equipment. Velcro is often used in place of a zipper. Just like zippers, Velcro was first designed to fasten clothing together.
 How was Velcro firstinvented? Velcro wasinspiredby burrs, which are seeds covered in hooks. When George de Mestral, the inventor of Velcro, was hiking with his dog, he noticed that his dog was covered in the spiky seeds. The seeds hadattachedto tiny loops in the dog’s fur. De Mestral studied the burr and the fur under a microscope. He soon realized he could adapt this hook-loop design into an adhesive tool. Years of testing led to the invention of Velcro. Velcro is made up of two strips of fabric. One strip is made up of hooks, and the other is made of loops.
@@ -2440,22 +2392,22 @@
 </t>
         </is>
       </c>
-      <c r="C71" t="n">
+      <c r="C69" t="n">
         <v>810</v>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>Keisha Smiles</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t xml:space="preserve">Alphabetical order was a big problem for Keisha Williams. In every list, on every line, in the lunchroom and the classroom, teachers put all the W’s together. Alice Wilkins was always one place ahead of Keisha.
 “You two are going to be friends,” said the girls’ teacher, Ms. Mubarak, “whether you like it or not.”
@@ -2480,22 +2432,22 @@
 </t>
         </is>
       </c>
-      <c r="C72" t="n">
+      <c r="C70" t="n">
         <v>610</v>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>Japanese Breakfast: Natto</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t xml:space="preserve">Tamaki Sono, CC BY 2.0
 Do you know what afermentedfood is?Fermentedfoods go through a chemical process. Fermentation is used to make cheese, beer, wine, and other foods. In Japan,fermentedsoybeans are used to make apopularbreakfast food callednatto.
@@ -2505,22 +2457,22 @@
 </t>
         </is>
       </c>
-      <c r="C73" t="n">
+      <c r="C71" t="n">
         <v>850</v>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>The Tomb of Emperor Askia</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve">Map of the Songhai Empire
 The SonghaiEmpirewas an empire in western Africa. During the 1400s and 1500s, it enjoyed a great deal of power. It stretched for many miles and across multiple countries, including Nigeria, Mali, and Senegal. The first emperor of this powerfulempirewas Askia Mohammad I. He was responsible for much of the SonghaiEmpire’sgrowth. In fact, Emperor Askia was so powerful andinfluentialthat his nickname was ‘Askia the Great!’
@@ -2530,22 +2482,22 @@
 </t>
         </is>
       </c>
-      <c r="C74" t="n">
+      <c r="C72" t="n">
         <v>790</v>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>What Looks Good?</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t xml:space="preserve">Mom still hadadvice, of course: “Bend your fingernails toward your palm, and cut away from your hand.”  Tyree worked slowly, making perfect slices of the onions and jalapeño peppers.
 “Mom, do we have more tomatoes?”  he asked.
@@ -2567,22 +2519,22 @@
 </t>
         </is>
       </c>
-      <c r="C75" t="n">
+      <c r="C73" t="n">
         <v>770</v>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>When Pterosaurs Took Flight</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A model of a pterosaur
@@ -2595,22 +2547,22 @@
 </t>
         </is>
       </c>
-      <c r="C76" t="n">
+      <c r="C74" t="n">
         <v>790</v>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>The Many Talents of Sujeet Desai</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve">People all over the world have differentstrengthsandtalents. Some people aretalentedat music. They might play many instruments or sing beautifully. Some people are great athletes. They might excel at lots of different sports. Some people have a range oftalents, and they work hard to improve their skills in many different areas. Sujeet Desai is one of those people. He is an accomplished Indian American musician and athlete.
 Sujeet Desai has Down syndrome. Down syndrome is a geneticdisabilitythat impacts how people look and learn. Their brains develop differently than people without Down syndrome. Some people with Down syndrome have to work extra hard to learn certain skills. But they also have their ownstrengthsandtalents.
@@ -2622,22 +2574,22 @@
 </t>
         </is>
       </c>
-      <c r="C77" t="n">
+      <c r="C75" t="n">
         <v>760</v>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>Nairobi, Kenya</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nairobi is the capital city of Kenya. The country’sgovernmentis located in Nairobi. This means that Nairobi is a very important city. Manygovernmentleaders from around the world travel to Nairobi.
@@ -2646,22 +2598,22 @@
 </t>
         </is>
       </c>
-      <c r="C78" t="n">
+      <c r="C76" t="n">
         <v>670</v>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>The Great Wildebeest Migration</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Wildebeests are large mammals that live in Africa. Wildebeests aresturdyanimals with large heads and curved horns. They weigh between 265 pounds and 600 pounds. Most of their days are spent looking for food. Wildebeests are herbivores, which means that they only eat plants and grasses. They do not eat meat. Unfortunately for wildebeests, not all animals are herbivores. Some animals are carnivores. Carnivores, like lions and cheetahs, eat other animals. Lions and cheetahs find wildebeests delicious and often hunt and kill them.
@@ -2671,22 +2623,22 @@
 </t>
         </is>
       </c>
-      <c r="C79" t="n">
+      <c r="C77" t="n">
         <v>730</v>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>Thai Food</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Thai food usually has five primaryflavors: sweet, spicy, sour, salty, andbitter. The sweetflavorin Thai food comes from sugar and coconut. The spicyflavorcomes from chili peppers. The sourflavorcomes from fruits like limes and pineapples. The saltyflavorcomes from salt and fish sauce. And finally, thebittertaste comes from leaves. People think that Thai dishes are delicious when they have all fiveflavors.
@@ -2695,22 +2647,22 @@
 </t>
         </is>
       </c>
-      <c r="C80" t="n">
+      <c r="C78" t="n">
         <v>600</v>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>Luk Thung: Thailand's Country Music</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t xml:space="preserve">Apopularform of music in Thailand is luk thung. People often call it "Thai country music." It was created in the countryside just north of Bangkok. Luk thung was invented in the early 1900s. Over the years, it hasspreadthroughout the country. You can now hear it playing in Thailand’s major cities.
 One of the most famous luk thung musicians was Suraphol Sombatcharoen. He helped to make luk thungpopularthroughout the country. He wrote more than 100 songs! He was so famous that people called him the "King of Luk Thung."
@@ -2720,22 +2672,22 @@
 </t>
         </is>
       </c>
-      <c r="C81" t="n">
+      <c r="C79" t="n">
         <v>510</v>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>Music in South Africa</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t xml:space="preserve">There are many differentstylesof South African music. One of the most famous South African musicstylesis iscathamiya. This musicstylewas created by the Zulu people. The Zulus are an ethnic group. Iscathamiya isperformedby groups of men. The men usually dance and sing when theyperformiscathamiya. The most popular iscathamiya group is Ladysmith Black Mambazo. This group mixed iscathamiya music with mbube music. Mbube is sung withoutinstruments. People around the world love Ladysmith Black Mambazo's unique musicstyle. In fact, Ladysmith Black Mambazo has won many awards over the years. They have also made more than 30 albums!
 Another South African musicstyleis marabi. Marabi music began in Johannesburg, a city in South Africa. Marabi soon became known in other South African cities. It was very popular in the early 1900s. Unlike mbube music, marabi music is played withinstruments. The guitar, piano, and banjo are the maininstrumentsused in marabi.
@@ -2743,22 +2695,22 @@
 </t>
         </is>
       </c>
-      <c r="C82" t="n">
+      <c r="C80" t="n">
         <v>790</v>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>Gold in Johannesburg, South Africa</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Johannesburg is the largest city in South Africa. It has a population of over four million people. Before 1886, however, the city did not exist. It was a tiny farming town in an area called Witwatersrand. So what changed in 1886? Gold wasdiscoveredin the area!
@@ -2769,22 +2721,22 @@
 </t>
         </is>
       </c>
-      <c r="C83" t="n">
+      <c r="C81" t="n">
         <v>680</v>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>Food in South Africa</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t xml:space="preserve">Braai:Do you love barbeque? If you said yes, then you would love braai! Braai is South Africa’s version of barbeque. The most importantingredientin braai is the meat. Beef, lamb, and even ostrich are used as braai meat. The meat is usually rubbed withspices. Thespicesadd to the meat’sflavor.
 Pepper, cumin, and paprika are often used toflavorthe braai meat. Once the meat is rubbed with thesespices, it is ready for the fire. The first braai cooks used campfires to cook their meat. Cooks have since replaced campfires with grills.
@@ -2793,22 +2745,22 @@
 </t>
         </is>
       </c>
-      <c r="C84" t="n">
+      <c r="C82" t="n">
         <v>750</v>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>A Silent Language</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t xml:space="preserve">Coloringbuddymike, CC BY-SA 3.0, via Wikimedia Commons
 the American Sign Language alphabet
@@ -2842,22 +2794,22 @@
 ReadWorks®is a Registered Trademark | </t>
         </is>
       </c>
-      <c r="C85" t="n">
+      <c r="C83" t="n">
         <v>450</v>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>LeBron!</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lebron James playing for the NBA's Cleveland Cavaliers
@@ -2891,6 +2843,7 @@
 LeBron James is one of the most well-known basketball players today. He was born in 1984 in Ohio. He has played in the NBA since 2003. He has played for different cities, like Cleveland and Miami.
 LeBron started playing basketball when he was young.  ...
 The English physicist and mathematician Sir Isaac Newton discovered three basic laws of motion. The First Law says that objects at rest and objects in motion will remain at rest or in motion, unless they are acted upon by an “unbalanced force.” The S ...
+The Sydney Opera House is one of the most famous buildings in Australia. It is known for its unique architectural style. The main architect, Jørn Utzon, was inspired by the natural world as he designed the building. Utzon wanted the building to highl ...
 We noticed that you have a pop-up blocker or ad blocker installed on your browser. This may be stopping the print version from appearing.
 Please try another browser, or update the settings on the pop-up/ad blocker to allow ReadWorks.org and try again.
 You may need to refresh your browser after changing the settings.
@@ -2898,22 +2851,22 @@
 ReadWorks®is a Registered Trademark | </t>
         </is>
       </c>
-      <c r="C86" t="n">
+      <c r="C84" t="n">
         <v>810</v>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>Shuji Nakamura</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t xml:space="preserve">Shuji Nakamura
 Sometimes, light bulbs can get hot to the touch. These light bulbs are called incandescent light bulbs. When you turn on this type of light bulb,electricitypasses through a thin wire to the bulb. Most of theelectricityflowing through the wire is lost as heat. It also produces a little bit of light. That’s why these light bulbs get hot when they are turned on. They are basically heaters that make a small amount of light.
@@ -2925,22 +2878,22 @@
 </t>
         </is>
       </c>
-      <c r="C87" t="n">
+      <c r="C85" t="n">
         <v>820</v>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>The Thousand and One Nights</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t xml:space="preserve">a German Translation of The Thousand and One Nights
 The Thousand and One Nights, also calledThe Arabian Nights, is a famouscollectionof stories. These stories came from India, Iran, Iraq, Egypt, and Turkey. The authors and dates of these tales are unknown. Most people who study these stories believe they were written by lots of different authors.
@@ -2950,22 +2903,22 @@
 </t>
         </is>
       </c>
-      <c r="C88" t="n">
+      <c r="C86" t="n">
         <v>840</v>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>An Inventor of Color Television</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t xml:space="preserve">a portrait of Guillermo González Camarena
 Guillermo González Camarena was born in Guadalajara, Mexico, on February 17, 1917. He loved to build things. As a young boy, he assembled electrically powered toys. By age 12, he had put together a radio from spare parts. By the age of 13, he was studying engineering.
@@ -2979,22 +2932,22 @@
 </t>
         </is>
       </c>
-      <c r="C89" t="n">
+      <c r="C87" t="n">
         <v>760</v>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>Saving the Mexican Gray Wolf</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t xml:space="preserve">a Mexican Gray Wolf
 Years ago, many Mexican gray wolves lived in the United States. In the 1800s, cattle ranchers were worried that these wolves would hunt and eat their farm animals. During the 1800s and 1900s, ranchers killed many of these wolves to try toprotecttheir animals. These wolves almost went extinct.
@@ -3006,22 +2959,22 @@
 </t>
         </is>
       </c>
-      <c r="C90" t="n">
+      <c r="C88" t="n">
         <v>850</v>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>Percy Julian: A Man of Vision</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t xml:space="preserve">Tracey Slotta, hosted by the USDA-NRCS PLANTS Database
 The calabar bean produces a natural chemical that reduces eye pressure.
@@ -3038,22 +2991,22 @@
 </t>
         </is>
       </c>
-      <c r="C91" t="n">
+      <c r="C89" t="n">
         <v>770</v>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>She Explained Mysteries</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t xml:space="preserve">Wang Zhenyi studied the earth, the moon, and space.
 Wang Zhenyi was a great scientist who lived long ago. She was born in 1768 in the Chinese province of Anhui. At that time, girls were not allowed to go to school. But Wang was lucky. Members of her wealthy family were scholars. They wanted her to learn.
@@ -3065,22 +3018,22 @@
 </t>
         </is>
       </c>
-      <c r="C92" t="n">
+      <c r="C90" t="n">
         <v>660</v>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>How the Ancestral Puebloans Adapted to a Changing Climate</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t xml:space="preserve">United States Geological Survey
 the White House Ruins, an Ancestral Puebloan cliff dwelling
@@ -3097,22 +3050,22 @@
 </t>
         </is>
       </c>
-      <c r="C93" t="n">
+      <c r="C91" t="n">
         <v>780</v>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>The Amaranth Plant</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Amaranth is anancientplant that has been grown for over 5,500 years! It is originally from Mexico and Guatemala, but now it is grown throughout the world. In Spanish it is calledAmaranto. Scientists call itAmaranthus cruentus.
@@ -3121,22 +3074,22 @@
 </t>
         </is>
       </c>
-      <c r="C94" t="n">
+      <c r="C92" t="n">
         <v>680</v>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>Marta's First-Day Dilemma</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t xml:space="preserve">
 illustration of an elementary school
@@ -3166,22 +3119,22 @@
 </t>
         </is>
       </c>
-      <c r="C95" t="n">
+      <c r="C93" t="n">
         <v>770</v>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>Bear and Berry Wisdom</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t xml:space="preserve">Diginatur on Wikimedia
 a táan, or black bear
@@ -3203,22 +3156,22 @@
 </t>
         </is>
       </c>
-      <c r="C96" t="n">
+      <c r="C94" t="n">
         <v>890</v>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>Art and Culture: Daily Activities in the Andes Mountains</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t xml:space="preserve">International Quilt Museum, University of Nebraska-Lincoln
 Wall Hanging, probably made in Bolivia, Unknown Maker
@@ -3237,22 +3190,22 @@
 </t>
         </is>
       </c>
-      <c r="C97" t="n">
+      <c r="C95" t="n">
         <v>780</v>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>The Importance of Corn to the Hopi People</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t xml:space="preserve">International Quilt Museum, University of Nebraska-Lincoln
 This quilt by Hopi artist Milfred Dallas Jr depicts four types of corn. Each type plays a different role in Hopi culture.
@@ -3266,22 +3219,22 @@
 </t>
         </is>
       </c>
-      <c r="C98" t="n">
+      <c r="C96" t="n">
         <v>850</v>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>Moscow, Russia</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t xml:space="preserve">Moscow is the capital of Russia, and it lies in the western part of the country. Around 12 million people live in Moscow, making it the mostpopulouscity in Russia. This population is very high because many people move to Moscow to find jobs. During the 1990s, there was a great deal of economic growth and, as a result, more jobs were brought into the economy. In this ten-year period, the number of people living in Moscow grew from 8 million people to 10 million people!
 Moscow had not always been soprosperous. In 1812, almost all of Moscow was destroyed after a horrific fire spread throughout most of the city. Thankfully, many of the stone buildings survived the fire, so we are still able to see them today.
@@ -3290,22 +3243,22 @@
 </t>
         </is>
       </c>
-      <c r="C99" t="n">
+      <c r="C97" t="n">
         <v>940</v>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>Andrea Bocelli</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t xml:space="preserve">InfoGibraltar (CC BY 2.0)
 Andrea Bocelli performing in concert in September 2019
@@ -3318,22 +3271,22 @@
 </t>
         </is>
       </c>
-      <c r="C100" t="n">
+      <c r="C98" t="n">
         <v>870</v>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>Naranjilla: The Little Orange Plant</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TheNaranjillaplant grows in South America in Ecuador, Peru, and Colombia. In Spanish, the nameNaranjillameans “little orange.”  In Quechua, anindigenouslanguage from the Andes Mountains, the plant is calledLulo. Its scientific name isSolanum quitoense.
@@ -3342,22 +3295,22 @@
 </t>
         </is>
       </c>
-      <c r="C101" t="n">
+      <c r="C99" t="n">
         <v>760</v>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>The Wheelchair Stunt Master</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t xml:space="preserve">Foad Ashtari/Tasnimnews (CC BY 4.0)
 Aaron Fotheringham performing a stunt in the 2016 Summer Paralympics Opening Ceremony
@@ -3369,22 +3322,22 @@
 </t>
         </is>
       </c>
-      <c r="C102" t="n">
+      <c r="C100" t="n">
         <v>880</v>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>Recipe for a Name</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t xml:space="preserve">Steven Giacomelli from Pixabay
 chocolate chip cookies
@@ -3418,22 +3371,22 @@
 </t>
         </is>
       </c>
-      <c r="C103" t="n">
+      <c r="C101" t="n">
         <v>880</v>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>Kyle Maynard: Living the "No Excuses" Lifestyle</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t xml:space="preserve">Penn State (CC BY-NC-ND 2.0)
 Kyle Maynard on a mountain
@@ -3445,22 +3398,22 @@
 </t>
         </is>
       </c>
-      <c r="C104" t="n">
+      <c r="C102" t="n">
         <v>930</v>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>Geography in Africa</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Africa has many different physicalfeaturesandclimates. Thosefeaturesandclimateschange as you progress from Africa’s northern coast on the Mediterranean Sea to southern Africa.
@@ -3473,22 +3426,22 @@
 </t>
         </is>
       </c>
-      <c r="C105" t="n">
+      <c r="C103" t="n">
         <v>900</v>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>The African Savanna</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t xml:space="preserve">The savanna in Africa is a large region of tall grasses. It is dotted by trees andherdsof animals. It reaches from the Atlantic Ocean in the west to the highlands of the present-day country of Ethiopia in the east.
 Animals, such as these giraffes, graze on the grasses of the savanna.
@@ -3498,22 +3451,22 @@
 </t>
         </is>
       </c>
-      <c r="C106" t="n">
+      <c r="C104" t="n">
         <v>880</v>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>Dancing with the Rollettes</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t xml:space="preserve">Trademarked
 logo of the Rollettes
@@ -3527,22 +3480,22 @@
 </t>
         </is>
       </c>
-      <c r="C107" t="n">
+      <c r="C105" t="n">
         <v>820</v>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+    <row r="106">
+      <c r="A106" t="inlineStr">
         <is>
           <t>The Apollo Theater</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t xml:space="preserve">Chris Bastian, CC-BY 2.0
 The Apollo Theater was very important in preserving thelegacyof the Harlem Renaissance. At the end of the Harlem Renaissance, the Apollo Theater opened its doors to Black performers. This was a historical moment because the Apollo was the first theater to allow Black people to perform.
@@ -3551,22 +3504,22 @@
 </t>
         </is>
       </c>
-      <c r="C108" t="n">
+      <c r="C106" t="n">
         <v>950</v>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>Sudha Chandran, Dancer and Activist</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t xml:space="preserve">ILO/G. Lingga, 2017. (CC BY-NC-ND 3.0 IGO)
 There are different types of artificial legs, but Sudha Chandran uses one below the knee made of mostly rubber.
@@ -3579,22 +3532,22 @@
 </t>
         </is>
       </c>
-      <c r="C109" t="n">
+      <c r="C107" t="n">
         <v>840</v>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>Zora Neale Hurston</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Zora Neale Hurston was born on January 7, 1891, in Eatonville, Florida. Zora eventually left Eatonville to attend Howard University, a historically-Black university in Washington D.C. After graduating, she moved to New York. Throughout her life, she experienceddiscriminationand racism as a Black woman.
@@ -3604,22 +3557,22 @@
 </t>
         </is>
       </c>
-      <c r="C110" t="n">
+      <c r="C108" t="n">
         <v>1070</v>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>Picture Day</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t xml:space="preserve">
 polaroid camera
@@ -3648,22 +3601,22 @@
 </t>
         </is>
       </c>
-      <c r="C111" t="n">
+      <c r="C109" t="n">
         <v>640</v>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>The Harlem Renaissance</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t xml:space="preserve">The Harlem Renaissance refers to an African American artistic, cultural, and intellectualmovementbetween the 1920s and the 1930s. Although Harlem, New York, was the home to many prominent artists and writers within thismovement, the Harlem Renaissance was a national movement.
 Likewise, there was not a specific artistic or literarystylethat defined thismovement. Instead, a participant in the Harlem Renaissance was a person who was committed to reflecting the African American experience through art. In fact, some of the most famous writers in thismovementcreated a literary magazine calledFire!! !as a means to communicate thediversityof writing within Harlem’s literary renaissance.
@@ -3671,22 +3624,22 @@
 </t>
         </is>
       </c>
-      <c r="C112" t="n">
+      <c r="C110" t="n">
         <v>1190</v>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>What to Say</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t xml:space="preserve">“Going to Noah’s!”  I yelled as I headed to our front door. But as soon as I saw my parents in the kitchen, I skidded to a stop. Something was wrong.
 “Jaiven, hold on,” said Baba, clearing his throat. “Your Ma and I spoke with Noah’s parents a little while ago.”
@@ -3711,22 +3664,22 @@
 </t>
         </is>
       </c>
-      <c r="C113" t="n">
+      <c r="C111" t="n">
         <v>540</v>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>So, You Think You Can't Dance?</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t xml:space="preserve">Well, that wasbad, I thought as I pulled off my ballet shoes.
 I had just finished my dance class, and it was a disaster. I started on the wrong foot—literally—and couldn’t get the steps that other students seemed to do easily. When the class was over, I noticed a few of the other students poking each other and pointing at me. They didn’t think I saw them, but I did.
@@ -3753,22 +3706,22 @@
 </t>
         </is>
       </c>
-      <c r="C114" t="n">
+      <c r="C112" t="n">
         <v>800</v>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>The Meaning of My Lunch</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t xml:space="preserve">John Keogh via Flickr (CC BY-NC 2.0)
 sancocho de gallina
@@ -3801,22 +3754,22 @@
 </t>
         </is>
       </c>
-      <c r="C115" t="n">
+      <c r="C113" t="n">
         <v>690</v>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>Giving Thanks Around the World</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t xml:space="preserve">Many Americans think of the Thanksgiving holiday as a day to give thanks over a shared meal. They gather with their families and reflect on the things they are grateful for. Around the world, people have many different traditions of giving thanks. Here are a few examples of thanksgiving celebrations around the world.
 Chuseok in Korea
@@ -3841,22 +3794,22 @@
 </t>
         </is>
       </c>
-      <c r="C116" t="n">
+      <c r="C114" t="n">
         <v>690</v>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>Kadeena Cox: Champion Paralympic Athlete</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t xml:space="preserve">astronomy_blog (CC BY-NC-SA 2.0)
 Kadeena Cox wearing the medals she won at the 2016 Rio Paralympics
@@ -3867,22 +3820,22 @@
 </t>
         </is>
       </c>
-      <c r="C117" t="n">
+      <c r="C115" t="n">
         <v>830</v>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>The Mexican Pepperleaf</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mexican Pepperleaf is a special plant that is used in cooking and medicine. It grows intropicalforests in Latin America. In Spanish it is calledHierba santaorHoja santa(holy plant or leaf). In Nahuatl, an indigenous language from Mexico, it is calledTlanecpahquílitl.Its scientific name isPiper auritum.
@@ -3892,22 +3845,22 @@
 </t>
         </is>
       </c>
-      <c r="C118" t="n">
+      <c r="C116" t="n">
         <v>830</v>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>World's Best Skateboarder</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t xml:space="preserve">Stig Nygaard via Flickr [CC by 2.0]
 Tony Hawk doing a trick at a skatepark in Copenhagen
@@ -3948,22 +3901,22 @@
 ReadWorks®is a Registered Trademark | </t>
         </is>
       </c>
-      <c r="C119" t="n">
+      <c r="C117" t="n">
         <v>850</v>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>The Father of Black History: Carter G. Woodson</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t xml:space="preserve">Carter G. Woodson
 Each February, people in the United States and Canada celebrate Black History Month. How did this celebration come to be? And who had the idea to create it? That trailblazer was Carter G. Woodson. Many people call him “The Father of Black History.”
@@ -3975,22 +3928,22 @@
 </t>
         </is>
       </c>
-      <c r="C120" t="n">
+      <c r="C118" t="n">
         <v>800</v>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t>Keeping the Sage-Grouse Safe to Dance Another Day</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t xml:space="preserve">A male sage-grouse shows off for females at a lek.
 You may have seen photographs of a peacock’s fabulous tail feathers. Peacocks have an amazing, colorful display of feathers they show to peahens toattractthem. But they are just one of many species of birds that do unusual things toattracta mate. Another one is the greater sage-grouse.
@@ -4004,22 +3957,22 @@
 </t>
         </is>
       </c>
-      <c r="C121" t="n">
+      <c r="C119" t="n">
         <v>930</v>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t>Yakutat Crew: Having Fun and Volunteering</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t xml:space="preserve">the Yakutat Community Corps working on a trail in 2016
 Picture a small city on the southeastern coast of Alaska, where only 6,000 or so people live. The only way you can get to it is by plane or boat—there are no roads in or out of the city.
@@ -4034,22 +3987,22 @@
 </t>
         </is>
       </c>
-      <c r="C122" t="n">
+      <c r="C120" t="n">
         <v>970</v>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>Helping the Fastest Land Animal in the United States</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t xml:space="preserve">a pronghorn
 Do you know which land animal is the fastest in the United States? It’s not a mountain lion, coyote, or wolf. It’s a pronghorn!
@@ -4064,22 +4017,22 @@
 </t>
         </is>
       </c>
-      <c r="C123" t="n">
+      <c r="C121" t="n">
         <v>1020</v>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>This Forest Is for the Birds</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t xml:space="preserve">A wood thrush feeds its babies.
 Have you ever heard the expression, “You can’t see the forest for the trees”? It means people are so focused on a small detail that they miss the bigger picture of a situation.
@@ -4093,22 +4046,22 @@
 </t>
         </is>
       </c>
-      <c r="C124" t="n">
+      <c r="C122" t="n">
         <v>1040</v>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>Hawaiian Family Members Returning Home</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t xml:space="preserve">David Ledig / U.S. Fish &amp; Wildlife Service
 a Hawaiian crow
@@ -4122,22 +4075,22 @@
 </t>
         </is>
       </c>
-      <c r="C125" t="n">
+      <c r="C123" t="n">
         <v>890</v>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>Better Grasslands Mean Better Dinners and Happier Birds</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t xml:space="preserve">cattle on grasslands in the United States
 When you think of a bird, where do you picture it? In a tree? On the top of a building? If so, grassland birds in the western United States may surprise you! As you might guess from their name, these birds live in the many types of tall and short grasses.
@@ -4148,22 +4101,22 @@
 </t>
         </is>
       </c>
-      <c r="C126" t="n">
+      <c r="C124" t="n">
         <v>1020</v>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>Helping a Patient Hunter, the Canada Lynx</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t xml:space="preserve">a Canada lynx
 When you’re really hungry, you might feel like you can’t possibly wait another second for a bite of food. The Canada lynx is more patient. This medium-sized member of the cat family (which includes lions and tigers) will hide and wait for hours for its prey, the snowshoe hare, to come along. Then it pounces!
@@ -4175,22 +4128,22 @@
 </t>
         </is>
       </c>
-      <c r="C127" t="n">
+      <c r="C125" t="n">
         <v>1100</v>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>Bats Need Our Help!</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t xml:space="preserve">a brown bat
 Most people don’t understand how much bats help us. Some people even think bats are scary or creepy. In fact, people should be glad there are bats in their neighborhood!
@@ -4205,22 +4158,22 @@
 </t>
         </is>
       </c>
-      <c r="C128" t="n">
+      <c r="C126" t="n">
         <v>920</v>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>New Help for an Old Mammal</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t xml:space="preserve">a Hawaiian monk seal
 When you think of mammals, you might think of furry animals with four legs that walk, hop, scurry, and hide in forests and fields. Do you think of the mammals that live in the sea such as dolphins, whales, and seals?
@@ -4238,22 +4191,22 @@
 </t>
         </is>
       </c>
-      <c r="C129" t="n">
+      <c r="C127" t="n">
         <v>1100</v>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>These Fast Birds Fish by Feel</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t xml:space="preserve">A black skimmer fishes by skimming across the water with its beak open.
 Have you ever had a nickname? There is a type of seabird that spends time in South Carolina that has several nicknames! It’s been called scissor-bill, shearwater, seadog, flood gull, storm gull, and cutwater. Most people call it the black skimmer.
@@ -4265,22 +4218,22 @@
 </t>
         </is>
       </c>
-      <c r="C130" t="n">
+      <c r="C128" t="n">
         <v>1000</v>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>Amazing Trees Help Us Breathe</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t xml:space="preserve">a live oak tree in South Carolina known as “Angel Oak”
 When you look at trees from the ground up, you can identify four parts: the roots, the trunk, thebranches, and the leaves. All four parts are vital to the health of the tree. What might be harder to see is just how important trees are to the health of the earth and all of us people! Here are some of the many ways that trees help us all.
@@ -4293,22 +4246,22 @@
 </t>
         </is>
       </c>
-      <c r="C131" t="n">
+      <c r="C129" t="n">
         <v>1050</v>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>Save Those Swamps!</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t xml:space="preserve">Jim Hudgins / U.S. Fish &amp; Wildlife Service
 sandhill cranes on Shiawassee National Wildlife Refuge in Michigan
@@ -4324,22 +4277,22 @@
 </t>
         </is>
       </c>
-      <c r="C132" t="n">
+      <c r="C130" t="n">
         <v>990</v>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>Removing Weeds to Help Giant Moose</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t xml:space="preserve">a bull moose
 Have you ever seen pictures of cattle grazing in the American West? Wild animals also graze on the delicious grasses and shrubs. Some of those wild grazers include elk, white-tailed deer, mule deer, and moose.
@@ -4352,22 +4305,22 @@
 </t>
         </is>
       </c>
-      <c r="C133" t="n">
+      <c r="C131" t="n">
         <v>1120</v>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>Nature Is Our Super Shield!</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t xml:space="preserve">National Oceanic and Atmospheric Administration
 a map showing the location of the coral reefs by Florida
@@ -4381,22 +4334,22 @@
 </t>
         </is>
       </c>
-      <c r="C134" t="n">
+      <c r="C132" t="n">
         <v>1040</v>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>Protecting Endangered Birds… with Alligators!</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t xml:space="preserve">an American alligator
 You may have seensecurityguards in stores or banks, but have you ever heard of security-guard alligators?
@@ -4412,22 +4365,22 @@
 </t>
         </is>
       </c>
-      <c r="C135" t="n">
+      <c r="C133" t="n">
         <v>1160</v>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>Copying Nature's Engineers</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t xml:space="preserve">Beavers build dams that slow down water in streams.
 Do you know which animals are experts at managing water? Beavers! Beavers cut down small trees by chewing around the trunks. Then, they use the wood to build dams in rivers and streams. The dams slow the water flow and create deep ponds where beavers can build their homes, called lodges.
@@ -4442,22 +4395,22 @@
 </t>
         </is>
       </c>
-      <c r="C136" t="n">
+      <c r="C134" t="n">
         <v>1090</v>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>Making Space for Bunnies</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t xml:space="preserve">a New England cottontail
 Did you know there are 20 different types of cottontail rabbit? All of the bunnies share one thing in common: their fluffy white tail.
@@ -4471,22 +4424,22 @@
 </t>
         </is>
       </c>
-      <c r="C137" t="n">
+      <c r="C135" t="n">
         <v>1180</v>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>Protecting Sea Turtles, Seals, and Birds in Hawaii</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t xml:space="preserve">a Hawaiian monk seal
 When people travel to a beach, they are often surrounded by hotels, private homes, and tourist attractions.
@@ -4504,22 +4457,22 @@
 </t>
         </is>
       </c>
-      <c r="C138" t="n">
+      <c r="C136" t="n">
         <v>1080</v>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>Woodpeckers Make the Good Kind of Cavities</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t xml:space="preserve">A time-lapse photo shows a single red-cockaded woodpecker bringing an insect to an artificial nest cavity.
 You may have had acavityin one of your teeth. That kind ofcavityis a hole in a tooth that develops over time. It’s not a good kind ofcavityto have. It can hurt, and your dentist will have to drill your tooth and fill in the hole.
@@ -4534,22 +4487,22 @@
 </t>
         </is>
       </c>
-      <c r="C139" t="n">
+      <c r="C137" t="n">
         <v>930</v>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>Planting Pet Trees</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t xml:space="preserve">people in a canoe on the Bronx River
 Kids have pets of all kinds: dogs, cats, hamsters, gerbils, ferrets, and fish. Some schools have pets in the classrooms, like turtles or an iguana. But have you ever heard of pet trees?
@@ -4566,22 +4519,22 @@
 </t>
         </is>
       </c>
-      <c r="C140" t="n">
+      <c r="C138" t="n">
         <v>1080</v>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>Thank You, Bees, Butterflies, and Bats</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t xml:space="preserve">a bumblebee pollinates blueberry flowers
 The next time you take a big bite of a delicious chocolate bar, thank a bat. Why? Because chocolate is made from cocoa beans. Those cocoa beans come from cocoa plants. And cocoa plants depend on the bats!
@@ -4593,22 +4546,22 @@
 </t>
         </is>
       </c>
-      <c r="C141" t="n">
+      <c r="C139" t="n">
         <v>1000</v>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>From Food Desert to Food Forest</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t xml:space="preserve">Imagine walking through a neighborhood park and collecting fruits, nuts, and vegetables to eat when you get home. That’s what kids and people of all ages are going to be able to do in a “food forest” being planted in Atlanta, Georgia.
 The food forest is actually a new park about the size of six American football fields. More than 25 years ago, the area was a small family farm. The owners raised horses, chickens, and vegetables, and even had a pecan orchard. A real estate developer planned to build apartments there, but never did. Then, an organization called The Conservation Fund bought the land in order to help preserve green space in the city. The City of Atlanta and many other organizations including Trees Atlanta are now helping to improve the land and water in the food forest and surrounding park area.
@@ -4620,22 +4573,22 @@
 </t>
         </is>
       </c>
-      <c r="C142" t="n">
+      <c r="C140" t="n">
         <v>1090</v>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>Sharing the Stream</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t xml:space="preserve">a sockeye salmon
 You’ve probably heard over the years that sharing is a good thing to do. But have you ever tried to share something with a fish? Farmers and landowners along the Columbia River are doing just that. They are sharing the cool, clean, fresh water they all need with different species of Pacific coast salmon.
@@ -4649,22 +4602,22 @@
 </t>
         </is>
       </c>
-      <c r="C143" t="n">
+      <c r="C141" t="n">
         <v>1040</v>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>The Historical Medina of Fes, Morocco</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Prazeres on Wikimedia
 a souk on a narrow street in Fes el-Bali
@@ -4677,22 +4630,22 @@
 </t>
         </is>
       </c>
-      <c r="C144" t="n">
+      <c r="C142" t="n">
         <v>850</v>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>Feeling Left-Out</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t xml:space="preserve">public domain: https://pixabay.com/en/picture-books-subject-book-108539/
 “Awww, yeah, a BATTLE!”  said Wyatt, pulling back his arm to give me a fist bump. “You see that, Rian?”
@@ -4730,22 +4683,22 @@
 </t>
         </is>
       </c>
-      <c r="C145" t="n">
+      <c r="C143" t="n">
         <v>740</v>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>Conservation Groups Count on Outreach Specialists</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Volunteers help study redknots.
@@ -4760,22 +4713,22 @@
 </t>
         </is>
       </c>
-      <c r="C146" t="n">
+      <c r="C144" t="n">
         <v>900</v>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>Studying Coral Reefs Helps the Land, Too</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t xml:space="preserve">National Fish and Wildlife Foundation
 a coral reef in Hawaii
@@ -4790,22 +4743,22 @@
 </t>
         </is>
       </c>
-      <c r="C147" t="n">
+      <c r="C145" t="n">
         <v>900</v>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>Preserving Grasslands</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t xml:space="preserve">
 grasslands in Saskatchewan, Canada
@@ -4818,22 +4771,22 @@
 </t>
         </is>
       </c>
-      <c r="C148" t="n">
+      <c r="C146" t="n">
         <v>890</v>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>How to Find Fish without Seeing Them</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t xml:space="preserve">
 a bridled darter in the Conasauga River in Tennessee
@@ -4845,22 +4798,22 @@
 </t>
         </is>
       </c>
-      <c r="C149" t="n">
+      <c r="C147" t="n">
         <v>880</v>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>Scat-sniffing Dogs are Helping to Save Orcas</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t xml:space="preserve">
 an orca
@@ -4874,22 +4827,22 @@
 </t>
         </is>
       </c>
-      <c r="C150" t="n">
+      <c r="C148" t="n">
         <v>870</v>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>Farmers Care for the Land</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t xml:space="preserve">
 a farmer grows native plants for butterflies
@@ -4903,22 +4856,22 @@
 </t>
         </is>
       </c>
-      <c r="C151" t="n">
+      <c r="C149" t="n">
         <v>920</v>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>Studying Soil: Why is Dirt Important?</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t xml:space="preserve">
 a scientist taking a sample of soil
@@ -4931,22 +4884,22 @@
 </t>
         </is>
       </c>
-      <c r="C152" t="n">
+      <c r="C150" t="n">
         <v>830</v>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>Mexican Creators and Feminists</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t xml:space="preserve">
 portrait of Sor Juana Inés de la Cruz
@@ -4959,22 +4912,22 @@
 </t>
         </is>
       </c>
-      <c r="C153" t="n">
+      <c r="C151" t="n">
         <v>1010</v>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>How to Band Birds</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t xml:space="preserve">
 a banded bird
@@ -4991,22 +4944,22 @@
 </t>
         </is>
       </c>
-      <c r="C154" t="n">
+      <c r="C152" t="n">
         <v>920</v>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>Saving the Flying Mammal</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t xml:space="preserve">
 a brown bat
@@ -5018,22 +4971,22 @@
 </t>
         </is>
       </c>
-      <c r="C155" t="n">
+      <c r="C153" t="n">
         <v>860</v>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>Working Outdoors with Wildlife</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t xml:space="preserve">National Fish and Wildlife Foundation
 mule deer
@@ -5049,22 +5002,22 @@
 </t>
         </is>
       </c>
-      <c r="C156" t="n">
+      <c r="C154" t="n">
         <v>880</v>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>Cleaning Up Ocean Pollution: Collecting "Ghost" Fishing Gear</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t xml:space="preserve">
 "ghost" fishing gear
@@ -5077,22 +5030,22 @@
 </t>
         </is>
       </c>
-      <c r="C157" t="n">
+      <c r="C155" t="n">
         <v>970</v>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+    <row r="156">
+      <c r="A156" t="inlineStr">
         <is>
           <t>Tagine: A Cookware and a Delicious Stew</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B156" t="inlineStr">
         <is>
           <t xml:space="preserve">Marco Laconi on Pixabay
 many colorful tagines
@@ -5105,22 +5058,22 @@
 </t>
         </is>
       </c>
-      <c r="C158" t="n">
+      <c r="C156" t="n">
         <v>920</v>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
+    <row r="157">
+      <c r="A157" t="inlineStr">
         <is>
           <t>Helping Birds in a Changing World</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t xml:space="preserve">National Fish and Wildlife Foundation
 volunteers in New Jersey working to help shorebirds
@@ -5134,22 +5087,22 @@
 </t>
         </is>
       </c>
-      <c r="C159" t="n">
+      <c r="C157" t="n">
         <v>900</v>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t>Living in Space</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t xml:space="preserve">Luminas_Art
 a planet in space
@@ -5202,22 +5155,22 @@
 </t>
         </is>
       </c>
-      <c r="C160" t="n">
+      <c r="C158" t="n">
         <v>590</v>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t>Native American Boarding Schools and Forced Assimilation in the 19th Century</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t xml:space="preserve">Throughout the 1800s, the U.S. government forced many Native American tribes onto reservations. Reservations were areas of land set aside for Native Americans. The government wanted American settlers to start settling more in the west. To make this possible, the government wanted to move Native Americans off their land. They forced many Native American tribes to leave their homelands. Often, they convinced tribes to sign treaties giving up their land, or used violence to force them off their ancestral homeland.
 The U.S. government argued that this was a way toassimilateNative Americans into European American culture. Why would the U.S. government want toassimilateNative Americans? Well, the government wanted more power and control in the west. The government would have more control over Native Americans if they lived as part of European American society. However, most adult Native Americans wanted to continue to live according to their traditions. For example, a Cree man used to hunting bison did not want to return to the life of farming on a reservation. That was a lifestyle his ancestors had given up not so long ago when the horse had been introduced to North America.
@@ -5242,22 +5195,22 @@
 ReadWorks®is a Registered Trademark | </t>
         </is>
       </c>
-      <c r="C161" t="n">
+      <c r="C159" t="n">
         <v>890</v>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t>Calling for Snow</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The sun must be lost, thought Paula as sheshiveredearly one morning while waiting at the school-bus stop. She knew that bright yellow ball must be floating in the sky somewhere above her—it was daytime after all—but she could not feel its warmth.
@@ -5285,22 +5238,22 @@
 </t>
         </is>
       </c>
-      <c r="C162" t="n">
+      <c r="C160" t="n">
         <v>640</v>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t>The People's Bicentennial Quilt</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t xml:space="preserve">International Quilt Museum, University of Nebraska-Lincoln
 The People's Bicentennial quilt was made by 45 female quiltmakers in California to show a more complicated version of America's history.
@@ -5323,22 +5276,22 @@
 </t>
         </is>
       </c>
-      <c r="C163" t="n">
+      <c r="C161" t="n">
         <v>990</v>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="D161" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
+    <row r="162">
+      <c r="A162" t="inlineStr">
         <is>
           <t>Poison in the Water: Art and Environmental Activism</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t xml:space="preserve">International Quilt Museum, University of Nebraska-Lincoln
 This quilt, Rocky Mountain Poison, is by Luana Rubin and addresses an environmental crisis.
@@ -5353,22 +5306,22 @@
 </t>
         </is>
       </c>
-      <c r="C164" t="n">
+      <c r="C162" t="n">
         <v>820</v>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t>African American Men Get the Vote in 1870</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Thomas Mundy Peterson, the first African American man to vote after the 15th Amendment was passed
@@ -5385,22 +5338,22 @@
 </t>
         </is>
       </c>
-      <c r="C165" t="n">
+      <c r="C163" t="n">
         <v>1070</v>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
+    <row r="164">
+      <c r="A164" t="inlineStr">
         <is>
           <t>The Amazing Acrobatics of Sepak Takraw</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B164" t="inlineStr">
         <is>
           <t xml:space="preserve">Republic of Korea
 South Korea's Kim I-seul and Japan's Chiharu Yano during the Japan vs. South Korea in 2014
@@ -5414,22 +5367,22 @@
 </t>
         </is>
       </c>
-      <c r="C166" t="n">
+      <c r="C164" t="n">
         <v>980</v>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="D164" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
+    <row r="165">
+      <c r="A165" t="inlineStr">
         <is>
           <t>Pato: Argentina's National Sport</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B165" t="inlineStr">
         <is>
           <t xml:space="preserve">Beatrice Murch on Flickr
 A player throws the pato ball into the goal.
@@ -5442,22 +5395,22 @@
 </t>
         </is>
       </c>
-      <c r="C167" t="n">
+      <c r="C165" t="n">
         <v>920</v>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
+    <row r="166">
+      <c r="A166" t="inlineStr">
         <is>
           <t>Morocco's Geography</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B166" t="inlineStr">
         <is>
           <t xml:space="preserve">
 a map of Morocco's geography
@@ -5470,22 +5423,22 @@
 </t>
         </is>
       </c>
-      <c r="C168" t="n">
+      <c r="C166" t="n">
         <v>800</v>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+    <row r="167">
+      <c r="A167" t="inlineStr">
         <is>
           <t>Arabic Calligraphy</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B167" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Arabic calligraphy, artistic handwriting that uses the Arabic alphabet, is a central fixture in Islamic art. Calligraphy is present across a multitude of artforms, ranging from dainty dishware to impressive buildings like the Taj Mahal, one of the Seven Wonders of the World. While Arabic calligraphy sometimes simply decorates these various artforms, it is also considered an art form in and of itself.
@@ -5493,22 +5446,22 @@
 </t>
         </is>
       </c>
-      <c r="C169" t="n">
+      <c r="C167" t="n">
         <v>1100</v>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="D167" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
+    <row r="168">
+      <c r="A168" t="inlineStr">
         <is>
           <t>Rigoberta Menchú</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t xml:space="preserve">
 map of Guatemala
@@ -5521,22 +5474,22 @@
 </t>
         </is>
       </c>
-      <c r="C170" t="n">
+      <c r="C168" t="n">
         <v>1150</v>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
+    <row r="169">
+      <c r="A169" t="inlineStr">
         <is>
           <t>Morocco's Largest Mosque</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t xml:space="preserve">postcardtrip on PIxabay
 the Hassan II mosque
@@ -5550,22 +5503,22 @@
 </t>
         </is>
       </c>
-      <c r="C171" t="n">
+      <c r="C169" t="n">
         <v>820</v>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
+    <row r="170">
+      <c r="A170" t="inlineStr">
         <is>
           <t>The History of Surfing in Hawaii</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t xml:space="preserve">Surfing has existed in many forms for several centuries in places like West Africa and Peru. But the origins of the most popular form of modern surfingoriginatedin Ancient Polynesia. Cave paintings from the 12th century show Polynesians riding waves. The first Polynesians arrived in the Hawaiian Islands in the 4th century. They brought with them their deep knowledge of the ocean as well as the sport of surfing. Surfing has been a major part of Polynesian and Hawaiian culture for thousands of years.
 In Hawaii, surfing has always been more than a sport. In its earliest days in the islands, it was a cultural and spiritual activity. Hawaiians called surfinghe’e nalu, which means “wave sliding.”  They followed an ancient code of rules and laws calledKapu. TheKapusystem controlled religion, politics, lifestyle, and surfing customs. For example, before selecting a tree to carve to create a surfboard, Hawaiians would give offerings to the gods. They prayed to the kahuna, or expert priest, to give them good waves. Hawaiians even gave thanks after surviving a rough wipeout in the ocean. All of these traditions were a well-established part of Hawaiian surfing culture.
@@ -5577,22 +5530,22 @@
 </t>
         </is>
       </c>
-      <c r="C172" t="n">
+      <c r="C170" t="n">
         <v>950</v>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="D170" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
+    <row r="171">
+      <c r="A171" t="inlineStr">
         <is>
           <t>Sammy Davis Jr., an Exceptional Entertainer</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t xml:space="preserve">Jay Bernstein Public Relations [Public domain]
 Sammy Davis Jr.
@@ -5607,22 +5560,22 @@
 </t>
         </is>
       </c>
-      <c r="C173" t="n">
+      <c r="C171" t="n">
         <v>920</v>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="D171" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+    <row r="172">
+      <c r="A172" t="inlineStr">
         <is>
           <t>Reginald Lewis: Businessman Extraordinaire</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t xml:space="preserve">Rflewismuseum, CC BY-SA 4.0 via Wikimedia Commons
 Reginald Lewis
@@ -5634,22 +5587,22 @@
 </t>
         </is>
       </c>
-      <c r="C174" t="n">
+      <c r="C172" t="n">
         <v>960</v>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="D172" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+    <row r="173">
+      <c r="A173" t="inlineStr">
         <is>
           <t>How U.S. Immigration Changed in 1965</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t xml:space="preserve">LBJ Library photo by Yoichi Okamoto
 President Lyndon B. Johnson signed the Immigration and Naturalization Act of 1965 into law on October 3, 1965.
@@ -5661,22 +5614,22 @@
 </t>
         </is>
       </c>
-      <c r="C175" t="n">
+      <c r="C173" t="n">
         <v>1000</v>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+    <row r="174">
+      <c r="A174" t="inlineStr">
         <is>
           <t>The Chinese Exclusion Acts</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t xml:space="preserve">
 a family of Chinese immigrants trying to reenter the U.S. around 1911
@@ -5689,22 +5642,22 @@
 </t>
         </is>
       </c>
-      <c r="C176" t="n">
+      <c r="C174" t="n">
         <v>980</v>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
+    <row r="175">
+      <c r="A175" t="inlineStr">
         <is>
           <t>The Immigration Acts of 1917 and 1924</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t xml:space="preserve">National Park Service, Statue of Liberty NM
 literacy test from the 1920s
@@ -5716,22 +5669,22 @@
 </t>
         </is>
       </c>
-      <c r="C177" t="n">
+      <c r="C175" t="n">
         <v>870</v>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="D175" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
+    <row r="176">
+      <c r="A176" t="inlineStr">
         <is>
           <t>Cuban Immigration to the United States</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cuban immigrants arriving in Florida from Mariel, Cuba, in 1980
@@ -5744,22 +5697,22 @@
 </t>
         </is>
       </c>
-      <c r="C178" t="n">
+      <c r="C176" t="n">
         <v>880</v>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="D176" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
+    <row r="177">
+      <c r="A177" t="inlineStr">
         <is>
           <t>Immigration in the U.S. Today</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t xml:space="preserve">an example of a permanent resident card, or green card
 Immigrantshave helped shape the United States into the country it is today. The U.S. has moreimmigrantsthan any other country in the world! More than 40 million people living in the U.S. today were born in another country. Theseimmigrantsmake up over 13% of the population.
@@ -5771,22 +5724,22 @@
 </t>
         </is>
       </c>
-      <c r="C179" t="n">
+      <c r="C177" t="n">
         <v>830</v>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="D177" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
+    <row r="178">
+      <c r="A178" t="inlineStr">
         <is>
           <t>Gnawa Music of Morocco</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Mcall on Pixabay
 A Gnawa musician plays the gimbri, a three-string lute.
@@ -5799,22 +5752,22 @@
 </t>
         </is>
       </c>
-      <c r="C180" t="n">
+      <c r="C178" t="n">
         <v>790</v>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="D178" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
+    <row r="179">
+      <c r="A179" t="inlineStr">
         <is>
           <t>Jasmine Makes the Team</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t xml:space="preserve">public domain: https://pixabay.com/en/basketball-net-score-rim-hoop-2099656/
 basketball hoop
@@ -5847,22 +5800,22 @@
 </t>
         </is>
       </c>
-      <c r="C181" t="n">
+      <c r="C179" t="n">
         <v>870</v>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="D179" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
+    <row r="180">
+      <c r="A180" t="inlineStr">
         <is>
           <t>That Left-Out Feeling</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t xml:space="preserve">public domain: https://pixabay.com/en/picture-books-subject-book-108539/
 “Awww, yeah, a BATTLE!”  said Wyatt, pulling back his arm to give me a fist bump. “You see that, Rian?”
@@ -5900,22 +5853,22 @@
 </t>
         </is>
       </c>
-      <c r="C182" t="n">
+      <c r="C180" t="n">
         <v>740</v>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="D180" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
+    <row r="181">
+      <c r="A181" t="inlineStr">
         <is>
           <t>A Pick-Up Game Hiccup</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t xml:space="preserve">basketball hoop
 It was a typical Saturday afternoon in my small town of Brunswick, Georgia—just the right kind of day to meet friends and play a pick-up game of basketball. Since we didn’t have courts at the neighborhood parks like they do in big cities, I usually rode my bike around town, looking for a place to get a good game of two-on-two going in somebody’s driveway or backyard. All we needed was a friend with a hoop.
@@ -5936,22 +5889,22 @@
 </t>
         </is>
       </c>
-      <c r="C183" t="n">
+      <c r="C181" t="n">
         <v>720</v>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="D181" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
+    <row r="182">
+      <c r="A182" t="inlineStr">
         <is>
           <t>Frida Kahlo, an Artist and Inspiration</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Frida Kahlo was born on July 6, 1907 in Mexico City, the capital of Mexico. Kahlo had polio when she was 6 years old and lived through a bus accident when she was 18 years old, but it left her in pain the rest of her life. She began to paint after the bus accident, and often painted pictures of herself in pain. Despite not being able to walk well and having to wear a backbrace, Kahlo embraced painting and continued to paint as a way toexpressherself. She quickly became famous for being a female painter at a time when women did not paint professionally in Mexico.
@@ -5962,22 +5915,22 @@
 </t>
         </is>
       </c>
-      <c r="C184" t="n">
+      <c r="C182" t="n">
         <v>1120</v>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="D182" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
+    <row r="183">
+      <c r="A183" t="inlineStr">
         <is>
           <t>Hazelwood v. Kuhlmeier: Student Journalists Sue their School</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t xml:space="preserve">The Bill ofRightsis part of the U.S. Constitution. It protects the basicrightsof all people in the U.S. Theserightsare shared in ten sections, called Amendments. The First Amendment protects a few importantrights. Two of therightsit protects are freedom of speech and freedom of the press. Theserightsare about people’s freedom of expression. People can express themselves in different ways. They can express their beliefs in newspapers and in magazines. They can protest. They can practice their religion.
 The first page of the United States Constitution
@@ -5987,22 +5940,22 @@
 </t>
         </is>
       </c>
-      <c r="C185" t="n">
+      <c r="C183" t="n">
         <v>660</v>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="D183" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
+    <row r="184">
+      <c r="A184" t="inlineStr">
         <is>
           <t>Tinker vs. Des Moines Independent School District: Can Students Protest in School?</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t xml:space="preserve">The First Amendment in the U.S. Constitution protects people’srightto protest. It also protects people’s freedom of speech. People protest for many reasons. Some protest for equality. Others protest to help save the environment. People also protest in different ways. Some go to marches or make signs. Others use clothing as symbols to share their beliefs. Students in Des Moines, Iowa wore armbands at school to protest the Vietnam War. They believed they were using their First Amendmentrights. Their actions led to an important Supreme Court case.
 people protesting the Vietnam War with signs
@@ -6012,22 +5965,22 @@
 </t>
         </is>
       </c>
-      <c r="C186" t="n">
+      <c r="C184" t="n">
         <v>790</v>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="D184" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
+    <row r="185">
+      <c r="A185" t="inlineStr">
         <is>
           <t>Mari Copeny Takes Action to Save Her City</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t xml:space="preserve">Hillel Steinberg (CC BY-ND 2.0)
 Mari Copeny
@@ -6041,22 +5994,22 @@
 </t>
         </is>
       </c>
-      <c r="C187" t="n">
+      <c r="C185" t="n">
         <v>860</v>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
+    <row r="186">
+      <c r="A186" t="inlineStr">
         <is>
           <t>Muhammad Ali Takes on the Supreme Court</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Muhammad Ali
@@ -6070,22 +6023,22 @@
 </t>
         </is>
       </c>
-      <c r="C188" t="n">
+      <c r="C186" t="n">
         <v>890</v>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="D186" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
+    <row r="187">
+      <c r="A187" t="inlineStr">
         <is>
           <t>The Sport of Kabaddi</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t xml:space="preserve">Nick Leonard on Flickr
 People play a game of kabaddi.
@@ -6097,22 +6050,22 @@
 </t>
         </is>
       </c>
-      <c r="C189" t="n">
+      <c r="C187" t="n">
         <v>970</v>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
+    <row r="188">
+      <c r="A188" t="inlineStr">
         <is>
           <t>Imagine That</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t xml:space="preserve">Everyone at Columbine Elementary knew Teya. She was the kid with the red-rimmed glasses and big curly hair, with skin the color of brightly polished copper. There weren’t many girls at this school who looked like her.
 But the main reason everyone knew Teya was because of her wild imagination.
@@ -6148,22 +6101,22 @@
 </t>
         </is>
       </c>
-      <c r="C190" t="n">
+      <c r="C188" t="n">
         <v>650</v>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="D188" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
+    <row r="189">
+      <c r="A189" t="inlineStr">
         <is>
           <t>Well, This is Awkward</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t xml:space="preserve">Alina scanned the street in front of her school, looking for her mom. “Where is she?”  Alina muttered under her breath, feeling impatient and anxious. It was bad enough that her parents were making her take Mandarin class afterschool. She wasn’t even Chinese; her parents were from the Philippines! “It’s important to learn other languages,” her mom had said. But now she might not get home in time for something that wasreallyimportant.
 This can’t get any worse,Alina thought… but then she saw Zoe heading her way. As her fifth-grade classmate dropped her backpack on the ground, Alina froze.I was wrong,she thought.Things just got so much worse.
@@ -6194,22 +6147,22 @@
 </t>
         </is>
       </c>
-      <c r="C191" t="n">
+      <c r="C189" t="n">
         <v>780</v>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="D189" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
+    <row r="190">
+      <c r="A190" t="inlineStr">
         <is>
           <t>The Tree Goats of Morocco</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t xml:space="preserve">sachbearbeitung from Pixabay
 goats in an argan tree
@@ -6220,22 +6173,22 @@
 </t>
         </is>
       </c>
-      <c r="C192" t="n">
+      <c r="C190" t="n">
         <v>860</v>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="D190" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
+    <row r="191">
+      <c r="A191" t="inlineStr">
         <is>
           <t>Senegalese Wrestling</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t xml:space="preserve">Wrestling is the most popular sport in Senegal, a country in West Africa. This sport is calledlaambin the Senegalese language of Wolof. It has been practiced in Senegal for centuries.
 Senegalese wrestling began as an enjoyable activity for fisherman and farmers. These competitions took place at the end of the harvest season. The winners would often win cattle and other prizes. They gained respect in their villages as strong and courageous men.
@@ -6245,22 +6198,22 @@
 </t>
         </is>
       </c>
-      <c r="C193" t="n">
+      <c r="C191" t="n">
         <v>930</v>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="D191" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
+    <row r="192">
+      <c r="A192" t="inlineStr">
         <is>
           <t>Writing About Latinx Identity</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B192" t="inlineStr">
         <is>
           <t xml:space="preserve">Julia Alvarez was born on March 27, 1950, in New York City. Julia’s parents were both originally from the Dominican Republic but had decided to move to the United States because of the state of Dominican politics. Julia’s parents, however, did not enjoy living in the United States. When Julia was three months old, her family moved back to the Dominican Republic. During this time, Trujillo was a dictator in the Dominican Republic and Julia’s father became involved in theresistanceeffort. When the government discovered hisresistanceefforts, Julia’s family had to flee back to the United States in 1960.
 At the age of ten, Julia struggled to speak English in school but soon enough, her English improved with hard work and effort. As a result of this experience, Julia had developed a heightenedawarenessof language, which benefited her writing when she began to compose poetry.
@@ -6269,22 +6222,22 @@
 </t>
         </is>
       </c>
-      <c r="C194" t="n">
+      <c r="C192" t="n">
         <v>1220</v>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="D192" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
+    <row r="193">
+      <c r="A193" t="inlineStr">
         <is>
           <t>Storytelling in Cree Communities</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t xml:space="preserve">Provincial Archives of Alberta
 a Cree woman standing between two elders
@@ -6298,22 +6251,22 @@
 </t>
         </is>
       </c>
-      <c r="C195" t="n">
+      <c r="C193" t="n">
         <v>930</v>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="D193" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
+    <row r="194">
+      <c r="A194" t="inlineStr">
         <is>
           <t>Negotiating Cree Land Rights: The James Bay and Northern Quebec Agreement</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph B.
 a map of the James Bay area with the locations of hydroelectric dams by January 2006
@@ -6326,22 +6279,22 @@
 </t>
         </is>
       </c>
-      <c r="C196" t="n">
+      <c r="C194" t="n">
         <v>970</v>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
+    <row r="195">
+      <c r="A195" t="inlineStr">
         <is>
           <t>Moving to a New Home</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A soft, rumbling hum vibrated in Kyle’s ears as he approached the farm. His mom walked in front of him, taking long, purposeful strides. Next to him, a group of curious visitors trotted in tow, listening to Kyle’s mom spout off facts. She was giving a tour of a windturbinefarm located in northern California in order to educate the public on the benefits of using wind energy. Kyle decided to tag along and learn something for himself. He knew only the basics about his mom’s profession, but was becoming more and more interested in alternative energy after living in Los Angeles for so long and experiencing the pollution and smog in the air.
@@ -6354,22 +6307,22 @@
 </t>
         </is>
       </c>
-      <c r="C197" t="n">
+      <c r="C195" t="n">
         <v>820</v>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="D195" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
+    <row r="196">
+      <c r="A196" t="inlineStr">
         <is>
           <t>Living in Space</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t xml:space="preserve">Luminas_Art
 a planet in space
@@ -6422,22 +6375,22 @@
 </t>
         </is>
       </c>
-      <c r="C198" t="n">
+      <c r="C196" t="n">
         <v>590</v>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="D196" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
+    <row r="197">
+      <c r="A197" t="inlineStr">
         <is>
           <t>Rally for Access</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t xml:space="preserve">Congerdesign on Pixabay
 a soap dispenser in a bathroom
@@ -6466,22 +6419,22 @@
 </t>
         </is>
       </c>
-      <c r="C199" t="n">
+      <c r="C197" t="n">
         <v>820</v>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="D197" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
+    <row r="198">
+      <c r="A198" t="inlineStr">
         <is>
           <t>The Special Olympics: Building Champions and Having Fun!</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t xml:space="preserve">International Quilt Museum, University of Nebraska-Lincoln
 This quilt was made to honor the 2010 Special Olympics USA Games.
@@ -6496,22 +6449,22 @@
 </t>
         </is>
       </c>
-      <c r="C200" t="n">
+      <c r="C198" t="n">
         <v>840</v>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="D198" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
+    <row r="199">
+      <c r="A199" t="inlineStr">
         <is>
           <t>The Power of Dorothea Lange's Pictures</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t xml:space="preserve">In order to take striking and moving photographs, Dorothea Lange had to earn the trust of her subjects. Lange's friend, Ron Partridge,recalledhow she worked in the fields of California, photographing the workers.
 "She would walk through the field and talk to people, asking simple questions - 'What are you picking? … How long have you been here? When do you eat lunch? … I'd like to photograph you,' she'd say, and by now it would be 'Sure, why not,' and they would pose a little, but she would sort of ignore it, walk around until they forgot us and were back at work." Then she would begin to take her pictures.
@@ -6530,22 +6483,22 @@
 ReadWorks®is a Registered Trademark | </t>
         </is>
       </c>
-      <c r="C201" t="n">
+      <c r="C199" t="n">
         <v>930</v>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="D199" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
+    <row r="200">
+      <c r="A200" t="inlineStr">
         <is>
           <t>Who Was Alan Shepard?</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t xml:space="preserve">
 NASA selected Alan Shepard as one of its first seven astronauts in 1959.
@@ -6558,9 +6511,6 @@
 Shepard's second spaceflight was on the Apollo 14 mission to the moon. He was commander of a crew that included Stuart Roosa and Edgar Mitchell. The Apollo spacecraft waslaunchedon a Saturn V (5) rocket.
 On Feb. 15, 1971, Shepard and Mitchell landed on the moon. (Roosa stayed in orbit around the moon while the other two landed.) During two moonwalks, Shepard and Mitchell collected more than 100 pounds of moon rocks. Theyconductedscientific experiments on the lunar surface. Shepard also became the first person to hit a golf ball on the moon, showing how far it would go in the moon's lower gravity.
 After his second flight, Shepard returned to his job as head of the Astronaut Office. He retired from NASA in 1974. Shepard worked in private business. He also did volunteer work to support education and to help people learn about spaceflight. Shepard died of leukemia in 1998.
-John Glenn was a NASA astronaut. He was part of the first group of astronauts NASA selected. In 1962, he became the first American to orbit Earth. After leaving NASA, he became a U.S. senator. Later, he became the oldest person to fly in space.
-John  ...
-Neil Armstrong was the first human to walk on the surface of the moon. He was an astronaut who flew on two space missions. The first was Gemini 8. The second was Apollo 11, which landed on the moon in 1969. Armstrong was also an engineer, a pilot and ...
 We noticed that you have a pop-up blocker or ad blocker installed on your browser. This may be stopping the print version from appearing.
 Please try another browser, or update the settings on the pop-up/ad blocker to allow ReadWorks.org and try again.
 You may need to refresh your browser after changing the settings.
@@ -6568,22 +6518,22 @@
 ReadWorks®is a Registered Trademark | </t>
         </is>
       </c>
-      <c r="C202" t="n">
+      <c r="C200" t="n">
         <v>800</v>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="D200" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
+    <row r="201">
+      <c r="A201" t="inlineStr">
         <is>
           <t>Who Was John Glenn?</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mercury astronauts wore silver spacesuits during their flights.
@@ -6608,22 +6558,22 @@
 ReadWorks®is a Registered Trademark | </t>
         </is>
       </c>
-      <c r="C203" t="n">
+      <c r="C201" t="n">
         <v>790</v>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="D201" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
+    <row r="202">
+      <c r="A202" t="inlineStr">
         <is>
           <t>Who Was Neil Armstrong?</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Neil Armstrong was the first man to walk on the moon.
@@ -6651,22 +6601,22 @@
 ReadWorks®is a Registered Trademark | </t>
         </is>
       </c>
-      <c r="C204" t="n">
+      <c r="C202" t="n">
         <v>710</v>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="D202" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
+    <row r="203">
+      <c r="A203" t="inlineStr">
         <is>
           <t>Syrian Refugees in the United States</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t xml:space="preserve">Division of Global Migration and Quarantine, CDC
 map of Syria and the countries near it
@@ -6679,22 +6629,22 @@
 </t>
         </is>
       </c>
-      <c r="C205" t="n">
+      <c r="C203" t="n">
         <v>940</v>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="D203" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
+    <row r="204">
+      <c r="A204" t="inlineStr">
         <is>
           <t>Rufino Tamayo, An Influential Mexican Artist</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Hawk on Flickr
 The Lovers by Rufino Tamayo
@@ -6706,22 +6656,22 @@
 </t>
         </is>
       </c>
-      <c r="C206" t="n">
+      <c r="C204" t="n">
         <v>980</v>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="D204" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
+    <row r="205">
+      <c r="A205" t="inlineStr">
         <is>
           <t>Refugees from Myanmar in the United States</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t xml:space="preserve">What causes people to leave their home countries? For some people, they might be looking for new opportunities, like jobs or education, in a new country. These people are called immigrants. Sometimes, though, people leave their home country because they are worried for their safety. They leave to escape violence or a dangerous situation. These people are called refugees. Many refugees from around the world come to the United States looking for protection and safety.
 Aotearoa on WikiCommons
@@ -6737,22 +6687,22 @@
 </t>
         </is>
       </c>
-      <c r="C207" t="n">
+      <c r="C205" t="n">
         <v>890</v>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="D205" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
+    <row r="206">
+      <c r="A206" t="inlineStr">
         <is>
           <t>Space Weather</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t xml:space="preserve">NASA
 a coronal mass ejection from the sun in June 2013
@@ -6766,8 +6716,8 @@
 They say every storm cloud has a silver lining. In the case of space weather, that lining is the aurora, commonly known as the northern or southern lights. When electrons and protons around Earth are energized by solardisturbances, they can follow Earth’s magnetic field toward the north and south magnetic poles. There, they collide with atmospheric molecules. This energizes them and causes them to glow. The colors that come from these collisions depend on the types of nearby atmospheric gases. Often, they are a brilliant yellow-green color.
 This article from the U.S. National Oceanic and Atmospheric Administration has no known copyright restrictions.
 This article from the U.S. National Oceanic and Atmospheric Administration has no known copyright restrictions.
+Space weather refers to the changing conditions of the sun and space that can affect the technology we use on Earth. It can affect satellites — which control phones, Internet, and TV. And it can affect the electric grid, leading to blackouts. Sudden  ...
 Pigeon racing is a big sport that dates back almost 2,000 years. All over the world, there are people with the hobby of training and racing a special kind of homing pigeon. They take their caged pigeons to a spot that is a carefully measured distance ...
-Space weather refers to the changing conditions of the sun and space that can affect the technology we use on Earth. It can affect satellites — which control phones, Internet, and TV. And it can affect the electric grid, leading to blackouts. Sudden  ...
 Observing the daily weather is part of a regular routine for many of us. Knowing the weather helps us decide what to wear and which activities we will do each day. Meteorologists are scientists who study the weather and atmosphere. They observe condi ...
 We noticed that you have a pop-up blocker or ad blocker installed on your browser. This may be stopping the print version from appearing.
 Please try another browser, or update the settings on the pop-up/ad blocker to allow ReadWorks.org and try again.
@@ -6776,22 +6726,22 @@
 ReadWorks®is a Registered Trademark | </t>
         </is>
       </c>
-      <c r="C208" t="n">
+      <c r="C206" t="n">
         <v>1100</v>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="D206" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
+    <row r="207">
+      <c r="A207" t="inlineStr">
         <is>
           <t>Important Cree Chiefs</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t xml:space="preserve">The Cree are anIndigenouspeople from North America. In fact, they are one of the largestIndigenousgroups in North America.
 In Cree culture, chiefs are important leaders. They are listened to and highly respected by their bands, or communities. Cree chiefs help their bands make rules and decisions, but they are not absolute rulers of the bands. Instead, they are voices of wisdom that help guide their bands. Throughout history, there have been many powerful, respected Cree chiefs.
@@ -6809,22 +6759,22 @@
 </t>
         </is>
       </c>
-      <c r="C209" t="n">
+      <c r="C207" t="n">
         <v>840</v>
       </c>
-      <c r="D209" t="inlineStr">
+      <c r="D207" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
+    <row r="208">
+      <c r="A208" t="inlineStr">
         <is>
           <t>The North American Indigenous Games</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t xml:space="preserve">Province of British Columbia (CC BY-NC-ND 2.0)
 Athletes from the team representing British Columbia at the 2017 NAIG show off their medals.
@@ -6835,22 +6785,22 @@
 </t>
         </is>
       </c>
-      <c r="C210" t="n">
+      <c r="C208" t="n">
         <v>970</v>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="D208" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
+    <row r="209">
+      <c r="A209" t="inlineStr">
         <is>
           <t>The Importance of Canoes in Native American Communities</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t xml:space="preserve">Ingrid Barrentine, Joint Base Lewis-McChord [CC BY-NC-SA 2.0]
 In the Pacific Northwest, the Sacred Water Canoe Family brings together Indigenous people from different tribes to participate in a canoe journey.
@@ -6866,22 +6816,22 @@
 </t>
         </is>
       </c>
-      <c r="C211" t="n">
+      <c r="C209" t="n">
         <v>940</v>
       </c>
-      <c r="D211" t="inlineStr">
+      <c r="D209" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
+    <row r="210">
+      <c r="A210" t="inlineStr">
         <is>
           <t>The Beat of Cree Music</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t xml:space="preserve">National Museum of the American Indian
 a Swampy Cree hand drum
@@ -6895,22 +6845,22 @@
 </t>
         </is>
       </c>
-      <c r="C212" t="n">
+      <c r="C210" t="n">
         <v>940</v>
       </c>
-      <c r="D212" t="inlineStr">
+      <c r="D210" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
+    <row r="211">
+      <c r="A211" t="inlineStr">
         <is>
           <t>The Plains Cree and the Woodland Cree</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Horetzky / Library and Archives Canada / C-005181
 Plains Cree tepees
@@ -6921,22 +6871,22 @@
 </t>
         </is>
       </c>
-      <c r="C213" t="n">
+      <c r="C211" t="n">
         <v>970</v>
       </c>
-      <c r="D213" t="inlineStr">
+      <c r="D211" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
+    <row r="212">
+      <c r="A212" t="inlineStr">
         <is>
           <t>Hmong Refugees in the United States</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t xml:space="preserve">Highsmith, Carol M, photographer. Some of the hundreds of participants at the 10th-annual Hmong New Year Celebration in downtown Chico, California, pose. United States California Chico, 2012. Photograph. https://www.loc.gov/item/2013631121/.
 some Hmong people celebrating Hmong New Year's in California
@@ -6950,22 +6900,22 @@
 </t>
         </is>
       </c>
-      <c r="C214" t="n">
+      <c r="C212" t="n">
         <v>1020</v>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="D212" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
+    <row r="213">
+      <c r="A213" t="inlineStr">
         <is>
           <t>The Doum Palm of the Sahara Desert</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t xml:space="preserve">Malcolm Manners on Flickr
 a doum palm tree in Senegal
@@ -6979,22 +6929,22 @@
 </t>
         </is>
       </c>
-      <c r="C215" t="n">
+      <c r="C213" t="n">
         <v>970</v>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="D213" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
+    <row r="214">
+      <c r="A214" t="inlineStr">
         <is>
           <t>What Is a Refugee?</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t xml:space="preserve">Our World in Data (CC BY 4.0)
 population of refugees around the world in 2017
@@ -7006,22 +6956,22 @@
 </t>
         </is>
       </c>
-      <c r="C216" t="n">
+      <c r="C214" t="n">
         <v>940</v>
       </c>
-      <c r="D216" t="inlineStr">
+      <c r="D214" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
+    <row r="215">
+      <c r="A215" t="inlineStr">
         <is>
           <t>The Nutritious Num Num</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t xml:space="preserve">The num num is a beautiful and useful plant native to South Africa. In the Zulu language, a language spoken by more than nine million people mostly in South Africa, this plant is called amatungulu. It can be found in Southern Africa and all along the Eastern coast of Africa, including in countries like Mozambique and Kenya.
 cultivar413 on Wikimedia
@@ -7033,22 +6983,22 @@
 </t>
         </is>
       </c>
-      <c r="C217" t="n">
+      <c r="C215" t="n">
         <v>1070</v>
       </c>
-      <c r="D217" t="inlineStr">
+      <c r="D215" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
+    <row r="216">
+      <c r="A216" t="inlineStr">
         <is>
           <t>Stickball, a Choctaw Tradition</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t xml:space="preserve">public domain: https://picryl.com/media/cherokee-hills-byway-traditional-game-of-stickball-being-played-9421d0
 modern stickball
@@ -7063,22 +7013,22 @@
 </t>
         </is>
       </c>
-      <c r="C218" t="n">
+      <c r="C216" t="n">
         <v>1020</v>
       </c>
-      <c r="D218" t="inlineStr">
+      <c r="D216" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
+    <row r="217">
+      <c r="A217" t="inlineStr">
         <is>
           <t>Olympic Legend, Jackie Joyner-Kersee</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jackie Joyner-Kersee at the 1988 US Olympic Trials
@@ -7091,22 +7041,22 @@
 </t>
         </is>
       </c>
-      <c r="C219" t="n">
+      <c r="C217" t="n">
         <v>970</v>
       </c>
-      <c r="D219" t="inlineStr">
+      <c r="D217" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
+    <row r="218">
+      <c r="A218" t="inlineStr">
         <is>
           <t>Running to Hunt, Running for Sport</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t xml:space="preserve">a Tarahumara foot race in Mexico, 1892-1898
 Running is a sport practiced by people everywhere around the world. Some people run casually for exercise. Some people train as professional runners, running in races and competing for fast times. For the Tarahumara people, running is an especially important part of their lives and community.
@@ -7118,22 +7068,22 @@
 </t>
         </is>
       </c>
-      <c r="C220" t="n">
+      <c r="C218" t="n">
         <v>850</v>
       </c>
-      <c r="D220" t="inlineStr">
+      <c r="D218" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
+    <row r="219">
+      <c r="A219" t="inlineStr">
         <is>
           <t>The Monkey Orange: Much More than a Fruit</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t xml:space="preserve">Monkey oranges are fruits native to Central and South Africa. These versatile fruits come from the monkey orange tree. This fruit tree can grow in many different conditions, including in desert and tropical climates. The tree’s ability to grow even in harsh environments makes it a great source of nutrients for people in these areas.
 The monkey orange tree grows in Central and South Africa. It grows up to 24 feet high, and is usually covered in sharp spines. These spines help keep animals and insects from eating the tree’s fruit. The leaves of the monkey orange tree are round or heart-shaped. The fruit is round, and about the size of a grapefruit. As monkey oranges ripen from September to December, their skin turns from light green to warm yellow. The fruit’s skin is thick and hard, almost like a shell. But inside that hard shell, the flesh of the fruit is light brown or orange and jelly-like. The monkey fruit’s sweet and sour taste make it a popular fruit in the areas where it grows. Plus, it is rich in Vitamin C, Vitamin B and other nutrients. The fruit can be eaten raw or dried. It can also be made into jams or juice. (The seeds of the monkey fruit, though, can’t be eaten. They’re poisonous! )
@@ -7145,22 +7095,22 @@
 </t>
         </is>
       </c>
-      <c r="C221" t="n">
+      <c r="C219" t="n">
         <v>1000</v>
       </c>
-      <c r="D221" t="inlineStr">
+      <c r="D219" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
+    <row r="220">
+      <c r="A220" t="inlineStr">
         <is>
           <t>The Dinka Dunker</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Born and raised in Sudan, Manute Bol was passionate about helping people in his home country, even donating most of the money he earned from his time in the NBA.
@@ -7172,22 +7122,22 @@
 </t>
         </is>
       </c>
-      <c r="C222" t="n">
+      <c r="C220" t="n">
         <v>1030</v>
       </c>
-      <c r="D222" t="inlineStr">
+      <c r="D220" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
+    <row r="221">
+      <c r="A221" t="inlineStr">
         <is>
           <t>Surrounded! [Alien Kids, #4]</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t xml:space="preserve">Darkmoon_Art
 a forest
@@ -7272,22 +7222,22 @@
 </t>
         </is>
       </c>
-      <c r="C223" t="n">
+      <c r="C221" t="n">
         <v>610</v>
       </c>
-      <c r="D223" t="inlineStr">
+      <c r="D221" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
+    <row r="222">
+      <c r="A222" t="inlineStr">
         <is>
           <t>Big Changes [Alien Kids, #5]</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t xml:space="preserve">Pexels
 a cave
@@ -7374,22 +7324,22 @@
 </t>
         </is>
       </c>
-      <c r="C224" t="n">
+      <c r="C222" t="n">
         <v>520</v>
       </c>
-      <c r="D224" t="inlineStr">
+      <c r="D222" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
+    <row r="223">
+      <c r="A223" t="inlineStr">
         <is>
           <t>Jim Abbott on the Mound</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jim Abbott congratulating a child athlete with a disability on a good game
@@ -7401,22 +7351,22 @@
 </t>
         </is>
       </c>
-      <c r="C225" t="n">
+      <c r="C223" t="n">
         <v>960</v>
       </c>
-      <c r="D225" t="inlineStr">
+      <c r="D223" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
+    <row r="224">
+      <c r="A224" t="inlineStr">
         <is>
           <t>Two Aliens [Alien Kids, #2]</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t xml:space="preserve">urformat
 a waterfall
@@ -7493,22 +7443,22 @@
 </t>
         </is>
       </c>
-      <c r="C226" t="n">
+      <c r="C224" t="n">
         <v>530</v>
       </c>
-      <c r="D226" t="inlineStr">
+      <c r="D224" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
+    <row r="225">
+      <c r="A225" t="inlineStr">
         <is>
           <t>The Fence [Alien Kids, #1]</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t xml:space="preserve">Luminas_Art
 a planet in space
@@ -7561,22 +7511,22 @@
 </t>
         </is>
       </c>
-      <c r="C227" t="n">
+      <c r="C225" t="n">
         <v>590</v>
       </c>
-      <c r="D227" t="inlineStr">
+      <c r="D225" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
+    <row r="226">
+      <c r="A226" t="inlineStr">
         <is>
           <t>Lost [Alien Kids, #3]</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t xml:space="preserve">jplenio
 forest
@@ -7646,22 +7596,22 @@
 </t>
         </is>
       </c>
-      <c r="C228" t="n">
+      <c r="C226" t="n">
         <v>580</v>
       </c>
-      <c r="D228" t="inlineStr">
+      <c r="D226" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
+    <row r="227">
+      <c r="A227" t="inlineStr">
         <is>
           <t>Somali Refugees in the United States</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t xml:space="preserve">A refugee is someone who must leave their home country because they are worried for their safety. Refugees move across borders to build a safer life in a new country. Many refugees come to the United States to live permanently and escape violence or other dangers. Refugees from Somalia, for example, have been coming to the U.S. for nearly 30 years. Now, they are one of the largest refugee communities in the United States.
 CIA World Factbook
@@ -7676,22 +7626,22 @@
 </t>
         </is>
       </c>
-      <c r="C229" t="n">
+      <c r="C227" t="n">
         <v>900</v>
       </c>
-      <c r="D229" t="inlineStr">
+      <c r="D227" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
+    <row r="228">
+      <c r="A228" t="inlineStr">
         <is>
           <t>Augusta Savage: Teacher and Sculptor of the Harlem Renaissance</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t xml:space="preserve">Augusta Savage
 The Harlem Renaissance was a golden age for African American culture. During the 1920s and 1930s, Harlem, New York City became a place where Black art, fashion, music, politics, and literature flourished. Augusta Savage was one of the leading artists of the Harlem Renaissance. Her desire to educate and support young artists fueled her.
@@ -7705,22 +7655,22 @@
 </t>
         </is>
       </c>
-      <c r="C230" t="n">
+      <c r="C228" t="n">
         <v>920</v>
       </c>
-      <c r="D230" t="inlineStr">
+      <c r="D228" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
+    <row r="229">
+      <c r="A229" t="inlineStr">
         <is>
           <t>Se Ri Pak, Champion Golfer</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t xml:space="preserve">Keith Allison (CC BY-SA 2.0)
 Se Ri Pak in 2009
@@ -7733,22 +7683,22 @@
 </t>
         </is>
       </c>
-      <c r="C231" t="n">
+      <c r="C229" t="n">
         <v>880</v>
       </c>
-      <c r="D231" t="inlineStr">
+      <c r="D229" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
+    <row r="230">
+      <c r="A230" t="inlineStr">
         <is>
           <t>Native American Traditions of Archery</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t xml:space="preserve">Have you ever shot a bow and arrow? If you have, you’ve practiced archery! Archery is the practice of shooting with a bow and arrow. In North America, archery has deep roots in the traditions of Native American groups. For Native American tribes, archery has long been both an important hunting method and a sporting event.
 UIC Library Digital Collections [CC BY-NC-ND 2.0, via Flickr]
@@ -7763,22 +7713,22 @@
 </t>
         </is>
       </c>
-      <c r="C232" t="n">
+      <c r="C230" t="n">
         <v>950</v>
       </c>
-      <c r="D232" t="inlineStr">
+      <c r="D230" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
+    <row r="231">
+      <c r="A231" t="inlineStr">
         <is>
           <t>Gerard Sekoto: Art in Apartheid</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t xml:space="preserve">Mother and Child painting by Gerard Sekoto
 Gerard Sekoto is known as a pioneer of Black South African art. He was born in Botshabelo, South Africa in 1913. 1913 was also the year the South African government passed a major law of segregation between races. Throughout Sekoto’s lifetime, the South African government passed more laws to exploit anddiscriminateagainst Black South Africans and other minorities in South Africa. One law made marrying across races illegal. Other laws forced Black South Africans from their homes and relegated them to live in particular areas. This system of apartheid was a system of racial segregation that impacted every part of life in South Africa. Gerard Sekoto grew up during this period of strife. The themes of struggle and inequality became important subjects in his paintings. His artistic journey tells a story of talent andpersistence.
@@ -7790,22 +7740,22 @@
 </t>
         </is>
       </c>
-      <c r="C233" t="n">
+      <c r="C231" t="n">
         <v>920</v>
       </c>
-      <c r="D233" t="inlineStr">
+      <c r="D231" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
+    <row r="232">
+      <c r="A232" t="inlineStr">
         <is>
           <t>The Serena Slam</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Serena Williams's serve is considered one of the best in tennis.
@@ -7819,22 +7769,22 @@
 </t>
         </is>
       </c>
-      <c r="C234" t="n">
+      <c r="C232" t="n">
         <v>1000</v>
       </c>
-      <c r="D234" t="inlineStr">
+      <c r="D232" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
+    <row r="233">
+      <c r="A233" t="inlineStr">
         <is>
           <t>Observing the Weather</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t xml:space="preserve">NOAA Virtual Lab
 a weather satellite image, which shows a concentration of lightning flashes over the Northern Plains in the U.S.
@@ -7857,22 +7807,22 @@
 ReadWorks®is a Registered Trademark | </t>
         </is>
       </c>
-      <c r="C235" t="n">
+      <c r="C233" t="n">
         <v>1180</v>
       </c>
-      <c r="D235" t="inlineStr">
+      <c r="D233" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
+    <row r="234">
+      <c r="A234" t="inlineStr">
         <is>
           <t>Cree Ceremonies</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t xml:space="preserve">Denley, Norman / Library and Archives Canada / PA-066547
 Piapot, a Cree chief and spiritual leader who played an important role in different Cree ceremonies
@@ -7885,22 +7835,22 @@
 </t>
         </is>
       </c>
-      <c r="C236" t="n">
+      <c r="C234" t="n">
         <v>960</v>
       </c>
-      <c r="D236" t="inlineStr">
+      <c r="D234" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
+    <row r="235">
+      <c r="A235" t="inlineStr">
         <is>
           <t>The Sport of Snowsnake</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t xml:space="preserve">Despite its name, snowsnake has nothing to do with real, live snakes. Instead, this traditional Indigenous sport is a fun way to compete athletically in snow, ice, and cold weather. This centuries-old sport is a tradition from the Haudenosaunee Confederacy. The Haudenosaunee Confederacy is a group of Native American tribes from the northeastern United States and southeastern Canada. The original five tribes in the confederacy are the Mohawk, Oneida, Onondaga, Cayuga, and Seneca tribes. Later, the Tuscarora tribe joined the confederacy.
 Daniel Penfield, CC BY-SA 4.0 via Wikimedia Commons
@@ -7915,22 +7865,22 @@
 </t>
         </is>
       </c>
-      <c r="C237" t="n">
+      <c r="C235" t="n">
         <v>990</v>
       </c>
-      <c r="D237" t="inlineStr">
+      <c r="D235" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
+    <row r="236">
+      <c r="A236" t="inlineStr">
         <is>
           <t>Teff, the Ancient Grain of Ethiopia</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t xml:space="preserve">
 teff grass
@@ -7944,22 +7894,22 @@
 </t>
         </is>
       </c>
-      <c r="C238" t="n">
+      <c r="C236" t="n">
         <v>970</v>
       </c>
-      <c r="D238" t="inlineStr">
+      <c r="D236" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
+    <row r="237">
+      <c r="A237" t="inlineStr">
         <is>
           <t>The Origins of Lacrosse</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t xml:space="preserve">upwithmooses via Flickr (CC BY-SA 2.0)
 young athletes at an Ojibwe Lacrosse League's youth camp
@@ -7973,22 +7923,22 @@
 </t>
         </is>
       </c>
-      <c r="C239" t="n">
+      <c r="C237" t="n">
         <v>970</v>
       </c>
-      <c r="D239" t="inlineStr">
+      <c r="D237" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
+    <row r="238">
+      <c r="A238" t="inlineStr">
         <is>
           <t>Baking Her Way</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t xml:space="preserve">
 package of the "Amazing Cookie" from Collettey's Cookies
@@ -8004,22 +7954,22 @@
 </t>
         </is>
       </c>
-      <c r="C240" t="n">
+      <c r="C238" t="n">
         <v>890</v>
       </c>
-      <c r="D240" t="inlineStr">
+      <c r="D238" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
+    <row r="239">
+      <c r="A239" t="inlineStr">
         <is>
           <t>Displacement and Refugees in the Democratic Republic of the Congo</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t xml:space="preserve">Refugees are people who flee their home country because there is violence or they are worried for their safety. When a refugee leaves their home, usually they cannot return. Every year, countries around the world accept refugees into their borders. The United States does this, too. In 2020, the largest number of refugees coming to the United States was from the Democratic Republic of the Congo (DRC).
 CIA World Factbook
@@ -8034,22 +7984,22 @@
 </t>
         </is>
       </c>
-      <c r="C241" t="n">
+      <c r="C239" t="n">
         <v>950</v>
       </c>
-      <c r="D241" t="inlineStr">
+      <c r="D239" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
+    <row r="240">
+      <c r="A240" t="inlineStr">
         <is>
           <t>Culture Box – Guatemala – Cacao</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Guatemala is often considered the “birthplace” of chocolate, as the ancient Mayasworshippedthe cacao tree andconsumedchocolate often. It was usuallyconsumedas a drink called Xoconochco or Suchitepequez. Unlike typical milk chocolate we are accustomed to eating, Mayans preferred the drink bitter and spicy, adding chilies and cornmeal to the cacao mixture. Cacao has health benefits, such as reducing blood pressure and boosting energy, which make it a popular ingredient both then and now.
@@ -8058,32 +8008,32 @@
 </t>
         </is>
       </c>
-      <c r="C242" t="n">
+      <c r="C240" t="n">
         <v>1170</v>
       </c>
-      <c r="D242" t="inlineStr">
+      <c r="D240" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
+    <row r="241">
+      <c r="A241" t="inlineStr">
         <is>
           <t>Culture Box – Guatemala – Indigenous Women with Traditional Loom</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B241" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Weavinghas long played an important role inindigenouscultures. Especially in the eras before mass-producedtextiles, people usually wove their own clothing; the designs woven on the clothing are distinctive to each community. Today,weavingis still practiced on a daily basis in many parts of Guatemala by Maya women to weave fabric for their clothing and other needed householdtextilessuch as shawls, baby wraps, tablecloths, washcloths, towels, and more. In the western highlands of Guatemala, the women for centuries have used cotton yarn for theirweavingand in some of the villages it was a custom to dye the natural cotton yarn with natural plant dyes.
 </t>
         </is>
       </c>
-      <c r="C243" t="n">
+      <c r="C241" t="n">
         <v>1360</v>
       </c>
-      <c r="D243" t="inlineStr">
+      <c r="D241" t="inlineStr">
         <is>
           <t>6</t>
         </is>
